--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Média.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Média.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.146237598186524</v>
+        <v>2.165097138958828</v>
       </c>
       <c r="C2" t="n">
-        <v>4.355260184750831</v>
+        <v>4.433039901940475</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3494422988044429</v>
+        <v>0.3262726588111902</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.814334041416532</v>
+        <v>1.94365635228407</v>
       </c>
       <c r="C3" t="n">
-        <v>1.559999999999999</v>
+        <v>2.969999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6677663449392316</v>
+        <v>0.5624249451433154</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.983039202392566</v>
+        <v>1.644922175155494</v>
       </c>
       <c r="C4" t="n">
-        <v>3.256454474537805</v>
+        <v>2.115915492957747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5258673893986883</v>
+        <v>0.7755311667593128</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.148987444736859</v>
+        <v>2.167464623991318</v>
       </c>
       <c r="C5" t="n">
-        <v>4.363759581332761</v>
+        <v>4.440578147350193</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3461018021672989</v>
+        <v>0.32332099907314</v>
       </c>
     </row>
     <row r="6">

--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Média.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Média.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Execution Time (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage (B)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>0.3262726588111902</v>
       </c>
+      <c r="E2" t="n">
+        <v>9.65699998778291</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>0.5624249451433154</v>
       </c>
+      <c r="E3" t="n">
+        <v>9.225599991623312</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>0.7755311667593128</v>
       </c>
+      <c r="E4" t="n">
+        <v>26.89470001496375</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>0.32332099907314</v>
       </c>
+      <c r="E5" t="n">
+        <v>6.516599998576567</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -533,6 +567,12 @@
       </c>
       <c r="D6" t="n">
         <v>-0.6496099883096833</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.92470001638867</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
